--- a/biology/Zoologie/Coucou_présageur/Coucou_présageur.xlsx
+++ b/biology/Zoologie/Coucou_présageur/Coucou_présageur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coucou_pr%C3%A9sageur</t>
+          <t>Coucou_présageur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scythrops novaehollandiae
 Le Coucou présageur (Scythrops novaehollandiae) est une espèce d'oiseau de la famille des Cuculidae. C'est le seul représentant du genre Scythrops.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coucou_pr%C3%A9sageur</t>
+          <t>Coucou_présageur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente la canopée de bordure ou de rivage.
 Son aire s'étend sur le nord et l'est de l'Australie, les Moluques et la Nouvelle-Guinée. Il est erratique en Nouvelle-Calédonie et en Nouvelle-Zélande.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coucou_pr%C3%A9sageur</t>
+          <t>Coucou_présageur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Mensurations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le plus grand coucou, mesurant 60 cm pour environ 610 g (mâles : 604 g, femelles : 623 g).
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coucou_pr%C3%A9sageur</t>
+          <t>Coucou_présageur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de fruits et d'insectes, particulièrement de figues, de phasmes, de locustes et de scarabés.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coucou_pr%C3%A9sageur</t>
+          <t>Coucou_présageur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe 3 sous-espèces :
 Scythrops novaehollandiae fordi I.J. Mason, 1996
